--- a/Assets/Resource/ExcelData/config.xlsx
+++ b/Assets/Resource/ExcelData/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF971C-BCE3-4E7C-BBCD-FD7458636738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD1F65-11E9-49A4-BD43-B224F37CF2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13596" yWindow="9012" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="7980" yWindow="8052" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -101,6 +101,25 @@
   <si>
     <t>#전투 스탯 정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#장비 아이템 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_item_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 아이템 정의(슬롯 순)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_weapon, equip_head, equip_armor, equip_shoes, equip_ring, equip_necklace</t>
   </si>
 </sst>
 </file>
@@ -546,14 +565,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="57.69921875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
@@ -688,17 +708,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
